--- a/Aula 3/commodities_mod.xlsx
+++ b/Aula 3/commodities_mod.xlsx
@@ -441,7 +441,7 @@
         <v>85.31999999999999</v>
       </c>
       <c r="C2">
-        <v>85.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -455,7 +455,7 @@
         <v>163.59</v>
       </c>
       <c r="C3">
-        <v>160.78</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -469,10 +469,10 @@
         <v>282.2</v>
       </c>
       <c r="C4">
-        <v>278.9</v>
+        <v>284.9</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -483,10 +483,10 @@
         <v>424.37</v>
       </c>
       <c r="C5">
-        <v>382.63</v>
+        <v>427.61</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -497,7 +497,7 @@
         <v>497.76</v>
       </c>
       <c r="C6">
-        <v>480</v>
+        <v>452.93</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -511,10 +511,10 @@
         <v>136.23</v>
       </c>
       <c r="C7">
-        <v>135.68</v>
+        <v>139.05</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -525,7 +525,7 @@
         <v>1092.87</v>
       </c>
       <c r="C8">
-        <v>1113.46</v>
+        <v>1096.07</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>321.77</v>
       </c>
       <c r="C9">
-        <v>338.43</v>
+        <v>324.69</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>1549.11</v>
       </c>
       <c r="C10">
-        <v>1548.7</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -567,7 +567,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="C11">
-        <v>9.050000000000001</v>
+        <v>9.48</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
